--- a/documentation/04 Test/Test Case.xlsx
+++ b/documentation/04 Test/Test Case.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mctri\OneDrive\Desktop\Maze game\documentation\04 Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE96BA3E-FB28-43C1-935E-4B4F92BA5049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C0058D-F850-418A-876E-8B242213BE20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C41B3C66-7802-457A-89E2-E07553CC596F}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{99DB21B6-4311-4F44-AA9B-7D134DD9EA58}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Case" sheetId="5" r:id="rId1"/>
+    <sheet name="Priority " sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Case'!$A$1:$F$13</definedName>
+    <definedName name="_Toc397602839" localSheetId="1">'Priority '!$B$3</definedName>
+    <definedName name="_Toc397602840" localSheetId="1">'Priority '!$C$3</definedName>
+    <definedName name="_Toc397602841" localSheetId="1">'Priority '!$B$6</definedName>
+    <definedName name="_Toc397610120" localSheetId="1">'Priority '!$B$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,9 +41,260 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>MOOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-functional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Upgrade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDC Track circuit </t>
+  </si>
+  <si>
+    <t>HPSS</t>
+  </si>
+  <si>
+    <t>TI21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulk Asset Loader </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clamplocks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Collection Mechanism </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic Asset 2017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic SMS Adaptor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insulation Monitoring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Points Heaters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Points Light Monitoring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rail Temperature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCM Simulator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-skin &amp; Alarm Management </t>
+  </si>
+  <si>
+    <t>System Upgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolve immediately </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium </t>
+  </si>
+  <si>
+    <t>Priority Category</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Immediate resolution required as further development and/or testing cannot occur until the defect has been repaired. The system/subsystem/functional area cannot be used until the repair has been affected</t>
+  </si>
+  <si>
+    <t>2. High</t>
+  </si>
+  <si>
+    <t>The defect must be resolved as soon as possible because it is impairing development/and or testing activities. This may result in an unplanned release in the current test cycle</t>
+  </si>
+  <si>
+    <t>3. Normal</t>
+  </si>
+  <si>
+    <t>The defect should be resolved in the normal course of development activities. It can wait until a new build or release version is created, preferably for the next test cycle, although it should be fixed before the next official release of the software.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Low </t>
+  </si>
+  <si>
+    <t>To be fixed if time is available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Resolve Immediately</t>
+  </si>
+  <si>
+    <t>* Step Name (design Steps)</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Results </t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player should move in an upwards direction on the map
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player moved in an upwards direction on the map
+</t>
+  </si>
+  <si>
+    <t>Able to use "Up" arrow key on keyboard to move player up</t>
+  </si>
+  <si>
+    <t>Able to use "down" arrow  key on keyboard to move player up</t>
+  </si>
+  <si>
+    <t>Able to use "left" arrow key on keyboard to move player up</t>
+  </si>
+  <si>
+    <t>Able to use "right" arrow key on keyboard to move player up</t>
+  </si>
+  <si>
+    <t>Player should move in an downward direction on the map</t>
+  </si>
+  <si>
+    <t>Player should move to the left direction on the map</t>
+  </si>
+  <si>
+    <t>Player should moveto the right direction on the map</t>
+  </si>
+  <si>
+    <t>Player moved in a downwards direction on the map</t>
+  </si>
+  <si>
+    <t>Player moved to the left of it previous position on the map</t>
+  </si>
+  <si>
+    <t>Player moved to the right of it previous position on the map</t>
+  </si>
+  <si>
+    <t>Player collion with wall</t>
+  </si>
+  <si>
+    <t>Player hits wall and is unable to pass through walls</t>
+  </si>
+  <si>
+    <t>When player collidies with a wall, player should not be able to pass through walls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player lives is shown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player lives should be shown when application is opened and at all times
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players lives remaining appears when game is open and is always shown throught the game
+</t>
+  </si>
+  <si>
+    <t>Treasure is updated when player moves to treasure</t>
+  </si>
+  <si>
+    <t>Life deducted when player touches enemies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player should have a life deducted from lives reemaining when player meets with enemies
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One life is deducted when player touches enemies
+</t>
+  </si>
+  <si>
+    <t>Enemies face movement direction</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Enemies should be facing the direction of whichever direction they are mmoving</t>
+  </si>
+  <si>
+    <t>Enemies do not face the correct direction of their movement</t>
+  </si>
+  <si>
+    <t>Player cant reach next level unless all treasure is collected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player should not be able to move to the next level unless they have collected all available treasure in level
+</t>
+  </si>
+  <si>
+    <t>Player is unable to move to next level unless all treasure has been collected</t>
+  </si>
+  <si>
+    <t>Treasure image changes when treasure is collected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treasure should change to an open treasure box when player has collected treasure
+</t>
+  </si>
+  <si>
+    <t>Treasure is shown as an open treasure box when player collects treasure</t>
+  </si>
+  <si>
+    <t>Player can move to next level at gate</t>
+  </si>
+  <si>
+    <t>When player moves to gate, it should take them to the next level</t>
+  </si>
+  <si>
+    <t>Player is taken to the next level when they reach the gate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When player goes to treaure, treasure value should update on console with its value.
+</t>
+  </si>
+  <si>
+    <t>Treasure value is shown on console when player collects treasure</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +302,95 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFF2F2F2"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -59,15 +398,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{A0EE66D3-20F7-4E61-A98C-74C899C5DC7D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{C38E235E-D8C5-48CA-9593-3C7EEDF18535}"/>
+    <cellStyle name="Normal_PSD-MKTG-0145 - Test Scenarios 1.4" xfId="2" xr:uid="{2366E2DF-6D3B-42BA-93FE-F42123687F66}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,15 +855,738 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA52D6EF-CBF4-4CB2-8EEA-86CCA8E21CC2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B2DA75-8870-40C3-B97C-985E6C59A7A5}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="7.53515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32.15234375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="47.765625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="30.07421875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.53515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.69140625" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="8.84375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="11" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="11" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="47.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="11" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="11" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="11" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="11" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="11" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="11" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="11" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F13" xr:uid="{E5E3C8A9-D4E8-4E29-8FC7-3A9840426D56}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EFC9D4-8CF7-40E9-8ED7-9B3DA91B06A1}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="47.15234375" customWidth="1"/>
+    <col min="3" max="3" width="58.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="45" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="33.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="45" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C512467-E8A8-4ABC-89B7-CB45C8C01869}">
+  <dimension ref="B3:E19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.23046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3828125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014B72BFB15ABE84B8A5C6AE9BA05811B" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e9115b8d9bd2e24b408a5feff0b6de00">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c9564dd-c3a1-4df5-9cb9-0a36b10a2124" xmlns:ns4="5ca7b9df-8e9a-4c76-8573-5679966a8748" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a143749d944a6878b20b43f4e050a90a" ns3:_="" ns4:_="">
+    <xsd:import namespace="8c9564dd-c3a1-4df5-9cb9-0a36b10a2124"/>
+    <xsd:import namespace="5ca7b9df-8e9a-4c76-8573-5679966a8748"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8c9564dd-c3a1-4df5-9cb9-0a36b10a2124" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5ca7b9df-8e9a-4c76-8573-5679966a8748" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A229DE2-E87E-41BF-A5F4-D81C78968F79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c9564dd-c3a1-4df5-9cb9-0a36b10a2124"/>
+    <ds:schemaRef ds:uri="5ca7b9df-8e9a-4c76-8573-5679966a8748"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{427FABFE-0034-4957-B0D9-9D580B1CF6A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17B17657-BB2C-4754-AD73-9D78D142BC2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5ca7b9df-8e9a-4c76-8573-5679966a8748"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8c9564dd-c3a1-4df5-9cb9-0a36b10a2124"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>